--- a/CNIntelligibility/intelligibility_jaccard.xlsx
+++ b/CNIntelligibility/intelligibility_jaccard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,57 +516,47 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>i66.1_intelligibility_jaccard</t>
+          <t>i70_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>i70_intelligibility_jaccard</t>
+          <t>s58_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>s58_intelligibility_jaccard</t>
+          <t>s62_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>s62_intelligibility_jaccard</t>
+          <t>s66_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>s66_intelligibility_jaccard</t>
+          <t>s70_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>s70_intelligibility_jaccard</t>
+          <t>v58_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v58_intelligibility_jaccard</t>
+          <t>v62_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>v62_intelligibility_jaccard</t>
+          <t>v66_intelligibility_jaccard</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>v66_intelligibility_jaccard</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
           <t>v70_intelligibility_jaccard</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>空白_intelligibility_jaccard</t>
         </is>
       </c>
     </row>
@@ -577,19 +567,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.346320346320346</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206349206349206</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129166666666667</v>
+        <v>0.1291666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.140217391304348</v>
+        <v>0.1402173913043478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G2" t="n">
         <v>0.15</v>
@@ -598,61 +588,55 @@
         <v>0.0954545454545454</v>
       </c>
       <c r="I2" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.137770897832817</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="K2" t="n">
-        <v>0.175238095238095</v>
+        <v>0.1752380952380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.182539682539683</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="M2" t="n">
-        <v>0.146428571428571</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="N2" t="n">
-        <v>0.154761904761905</v>
+        <v>0.1547619047619047</v>
       </c>
       <c r="O2" t="n">
-        <v>0.171679197994987</v>
+        <v>0.1716791979949874</v>
       </c>
       <c r="P2" t="n">
-        <v>0.127631578947368</v>
+        <v>0.1276315789473684</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.127631578947368</v>
+        <v>0.0888888888888888</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.114074074074074</v>
       </c>
       <c r="S2" t="n">
-        <v>0.114074074074074</v>
+        <v>0.1375</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="U2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.212797619047619</v>
       </c>
       <c r="V2" t="n">
-        <v>0.212797619047619</v>
+        <v>0.2302631578947368</v>
       </c>
       <c r="W2" t="n">
-        <v>0.230263157894737</v>
+        <v>0.1452380952380952</v>
       </c>
       <c r="X2" t="n">
-        <v>0.145238095238095</v>
+        <v>0.2991071428571428</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.299107142857143</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.172697368421053</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.110119047619048</v>
+        <v>0.1726973684210526</v>
       </c>
     </row>
     <row r="3">
@@ -662,25 +646,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.708333333333333</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171428571428571</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="D3" t="n">
         <v>0.119047619047619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.102631578947368</v>
+        <v>0.1026315789473684</v>
       </c>
       <c r="F3" t="n">
         <v>0.46875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>0.135238095238095</v>
+        <v>0.1352380952380952</v>
       </c>
       <c r="I3" t="n">
         <v>0.188235294117647</v>
@@ -689,55 +673,49 @@
         <v>0.1625</v>
       </c>
       <c r="K3" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.107619047619048</v>
+        <v>0.1076190476190476</v>
       </c>
       <c r="M3" t="n">
         <v>0.165903890160183</v>
       </c>
       <c r="N3" t="n">
-        <v>0.576190476190476</v>
+        <v>0.5761904761904761</v>
       </c>
       <c r="O3" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0.153452685421995</v>
+        <v>0.1534526854219949</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.153452685421995</v>
+        <v>0.1675191815856777</v>
       </c>
       <c r="R3" t="n">
-        <v>0.167519181585678</v>
+        <v>0.1561264822134387</v>
       </c>
       <c r="S3" t="n">
-        <v>0.156126482213439</v>
+        <v>0.2245989304812834</v>
       </c>
       <c r="T3" t="n">
-        <v>0.224598930481283</v>
+        <v>0.125</v>
       </c>
       <c r="U3" t="n">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="W3" t="n">
-        <v>0.159090909090909</v>
+        <v>0.1485507246376811</v>
       </c>
       <c r="X3" t="n">
-        <v>0.148550724637681</v>
+        <v>0.3840579710144927</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.384057971014493</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.174603174603175</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.075</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="4">
@@ -747,13 +725,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.16695652173913</v>
+        <v>0.1669565217391304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.158333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.182539682539683</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="E4" t="n">
         <v>0.11</v>
@@ -765,64 +743,58 @@
         <v>0.0555555555555555</v>
       </c>
       <c r="H4" t="n">
-        <v>0.186147186147186</v>
+        <v>0.1861471861471861</v>
       </c>
       <c r="I4" t="n">
         <v>0.0884615384615384</v>
       </c>
       <c r="J4" t="n">
-        <v>0.184659090909091</v>
+        <v>0.1846590909090909</v>
       </c>
       <c r="K4" t="n">
-        <v>0.146428571428571</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.199346405228758</v>
+        <v>0.1993464052287581</v>
       </c>
       <c r="M4" t="n">
-        <v>0.676113360323887</v>
+        <v>0.6761133603238867</v>
       </c>
       <c r="N4" t="n">
-        <v>0.452380952380952</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="O4" t="n">
-        <v>0.136363636363636</v>
+        <v>0.1363636363636363</v>
       </c>
       <c r="P4" t="n">
-        <v>0.178571428571428</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.178571428571428</v>
+        <v>0.1291666666666666</v>
       </c>
       <c r="R4" t="n">
-        <v>0.129166666666667</v>
+        <v>0.1494565217391304</v>
       </c>
       <c r="S4" t="n">
-        <v>0.14945652173913</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="T4" t="n">
-        <v>0.146428571428571</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="U4" t="n">
-        <v>0.166666666666667</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="V4" t="n">
-        <v>0.153409090909091</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="W4" t="n">
-        <v>0.215909090909091</v>
+        <v>0.1168831168831168</v>
       </c>
       <c r="X4" t="n">
-        <v>0.116883116883117</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.518181818181818</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.160714285714286</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.128947368421053</v>
+        <v>0.1607142857142857</v>
       </c>
     </row>
     <row r="5">
@@ -832,10 +804,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.101724137931034</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.430555555555556</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="D5" t="n">
         <v>0.0555555555555555</v>
@@ -847,67 +819,61 @@
         <v>0.625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.123737373737374</v>
+        <v>0.1237373737373737</v>
       </c>
       <c r="H5" t="n">
         <v>0.19375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.164086687306501</v>
+        <v>0.1640866873065015</v>
       </c>
       <c r="J5" t="n">
-        <v>0.137770897832817</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="K5" t="n">
-        <v>0.156126482213439</v>
+        <v>0.1561264822134387</v>
       </c>
       <c r="L5" t="n">
-        <v>0.172619047619048</v>
+        <v>0.1726190476190476</v>
       </c>
       <c r="M5" t="n">
-        <v>0.372222222222222</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="N5" t="n">
-        <v>0.388257575757576</v>
+        <v>0.3882575757575757</v>
       </c>
       <c r="O5" t="n">
-        <v>0.122425629290618</v>
+        <v>0.1224256292906178</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1265664160401</v>
+        <v>0.1265664160401002</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1265664160401</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="R5" t="n">
-        <v>0.12406015037594</v>
+        <v>0.1547619047619047</v>
       </c>
       <c r="S5" t="n">
-        <v>0.154761904761905</v>
+        <v>0.1413690476190476</v>
       </c>
       <c r="T5" t="n">
-        <v>0.141369047619048</v>
+        <v>0.05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="V5" t="n">
-        <v>0.165178571428571</v>
+        <v>0.1671826625386996</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1671826625387</v>
+        <v>0.1608187134502924</v>
       </c>
       <c r="X5" t="n">
-        <v>0.160818713450292</v>
+        <v>0.1055555555555555</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.105555555555555</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.146381578947368</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.121323529411765</v>
+        <v>0.1463815789473684</v>
       </c>
     </row>
     <row r="6">
@@ -920,31 +886,31 @@
         <v>0.025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.383333333333333</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138888888888889</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F6" t="n">
         <v>0.1425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.151515151515151</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="H6" t="n">
-        <v>0.192647058823529</v>
+        <v>0.1926470588235294</v>
       </c>
       <c r="I6" t="n">
-        <v>0.158823529411765</v>
+        <v>0.1588235294117647</v>
       </c>
       <c r="J6" t="n">
-        <v>0.111428571428571</v>
+        <v>0.1114285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.181818181818182</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L6" t="n">
         <v>0.1225</v>
@@ -953,7 +919,7 @@
         <v>0.322463768115942</v>
       </c>
       <c r="N6" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O6" t="n">
         <v>0.208235294117647</v>
@@ -962,37 +928,31 @@
         <v>0.213235294117647</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.213235294117647</v>
+        <v>0.188235294117647</v>
       </c>
       <c r="R6" t="n">
-        <v>0.188235294117647</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="S6" t="n">
-        <v>0.458333333333333</v>
+        <v>0.1768774703557312</v>
       </c>
       <c r="T6" t="n">
-        <v>0.176877470355731</v>
+        <v>0.1886363636363636</v>
       </c>
       <c r="U6" t="n">
-        <v>0.188636363636364</v>
+        <v>0.1700404858299595</v>
       </c>
       <c r="V6" t="n">
-        <v>0.17004048582996</v>
+        <v>0.1534526854219949</v>
       </c>
       <c r="W6" t="n">
-        <v>0.153452685421995</v>
+        <v>0.075</v>
       </c>
       <c r="X6" t="n">
-        <v>0.075</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09523809523809521</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.0954545454545454</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +962,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.158333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C7" t="n">
         <v>0.345</v>
@@ -1011,7 +971,7 @@
         <v>0.175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.162337662337662</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="F7" t="n">
         <v>0.140527950310559</v>
@@ -1020,64 +980,58 @@
         <v>0.14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.485507246376812</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="I7" t="n">
-        <v>0.146428571428571</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="J7" t="n">
-        <v>0.118055555555555</v>
+        <v>0.1180555555555555</v>
       </c>
       <c r="K7" t="n">
-        <v>0.214912280701754</v>
+        <v>0.2149122807017544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.174242424242424</v>
+        <v>0.1742424242424242</v>
       </c>
       <c r="M7" t="n">
-        <v>0.612820512820513</v>
+        <v>0.6128205128205129</v>
       </c>
       <c r="N7" t="n">
-        <v>0.127619047619048</v>
+        <v>0.1276190476190476</v>
       </c>
       <c r="O7" t="n">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="P7" t="n">
         <v>0.113095238095238</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.113095238095238</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="S7" t="n">
-        <v>0.392857142857143</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="T7" t="n">
-        <v>0.142156862745098</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="U7" t="n">
-        <v>0.158333333333333</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09846153846153841</v>
+        <v>0.1034782608695652</v>
       </c>
       <c r="W7" t="n">
-        <v>0.103478260869565</v>
+        <v>0.1245421245421245</v>
       </c>
       <c r="X7" t="n">
-        <v>0.124542124542125</v>
+        <v>0.0747282608695652</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0747282608695652</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.203619909502262</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.0954545454545454</v>
+        <v>0.2036199095022624</v>
       </c>
     </row>
     <row r="8">
@@ -1087,28 +1041,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.155138339920949</v>
+        <v>0.1551383399209486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512820512820513</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F8" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G8" t="n">
         <v>0.0982142857142857</v>
       </c>
       <c r="H8" t="n">
-        <v>0.334821428571429</v>
+        <v>0.3348214285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>0.138888888888889</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J8" t="n">
         <v>0.0555555555555555</v>
@@ -1117,52 +1071,46 @@
         <v>0.148235294117647</v>
       </c>
       <c r="L8" t="n">
-        <v>0.180263157894737</v>
+        <v>0.1802631578947368</v>
       </c>
       <c r="M8" t="n">
-        <v>0.156923076923077</v>
+        <v>0.1569230769230769</v>
       </c>
       <c r="N8" t="n">
-        <v>0.121753246753247</v>
+        <v>0.1217532467532467</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1441647597254</v>
+        <v>0.1441647597254004</v>
       </c>
       <c r="P8" t="n">
-        <v>0.103174603174603</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.103174603174603</v>
+        <v>0.1547619047619047</v>
       </c>
       <c r="R8" t="n">
-        <v>0.154761904761905</v>
+        <v>0.3637820512820512</v>
       </c>
       <c r="S8" t="n">
-        <v>0.363782051282051</v>
+        <v>0.1619565217391304</v>
       </c>
       <c r="T8" t="n">
-        <v>0.16195652173913</v>
+        <v>0.1681818181818181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.168181818181818</v>
+        <v>0.244047619047619</v>
       </c>
       <c r="V8" t="n">
-        <v>0.244047619047619</v>
+        <v>0.1890756302521008</v>
       </c>
       <c r="W8" t="n">
-        <v>0.189075630252101</v>
+        <v>0.1090686274509804</v>
       </c>
       <c r="X8" t="n">
-        <v>0.10906862745098</v>
+        <v>0.1903846153846153</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.190384615384615</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.325757575757576</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.3257575757575757</v>
       </c>
     </row>
     <row r="9">
@@ -1172,82 +1120,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.190909090909091</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.148181818181818</v>
+        <v>0.1481818181818182</v>
       </c>
       <c r="D9" t="n">
         <v>0.125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.137228260869565</v>
+        <v>0.1372282608695652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.178947368421053</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="G9" t="n">
-        <v>0.184210526315789</v>
+        <v>0.1842105263157894</v>
       </c>
       <c r="H9" t="n">
-        <v>0.431818181818182</v>
+        <v>0.4318181818181817</v>
       </c>
       <c r="I9" t="n">
-        <v>0.192647058823529</v>
+        <v>0.1926470588235294</v>
       </c>
       <c r="J9" t="n">
-        <v>0.143181818181818</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="K9" t="n">
         <v>0.09761904761904761</v>
       </c>
       <c r="L9" t="n">
-        <v>0.158333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>0.133928571428571</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="N9" t="n">
         <v>0.08125</v>
       </c>
       <c r="O9" t="n">
-        <v>0.373626373626374</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="P9" t="n">
         <v>0.1625</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1625</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="R9" t="n">
-        <v>0.121739130434783</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="S9" t="n">
-        <v>0.488095238095238</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="T9" t="n">
-        <v>0.103174603174603</v>
+        <v>0.1622807017543859</v>
       </c>
       <c r="U9" t="n">
-        <v>0.162280701754386</v>
+        <v>0.1885964912280701</v>
       </c>
       <c r="V9" t="n">
-        <v>0.18859649122807</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="W9" t="n">
-        <v>0.142857142857143</v>
+        <v>0.1611253196930946</v>
       </c>
       <c r="X9" t="n">
-        <v>0.161125319693095</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.17156862745098</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.117647058823529</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="10">
@@ -1257,82 +1199,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.18859649122807</v>
+        <v>0.1885964912280701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.131428571428571</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.199013157894737</v>
+        <v>0.1990131578947368</v>
       </c>
       <c r="E10" t="n">
         <v>0.1375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.158333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.194444444444444</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="H10" t="n">
-        <v>0.535714285714286</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I10" t="n">
-        <v>0.11437908496732</v>
+        <v>0.1143790849673202</v>
       </c>
       <c r="J10" t="n">
-        <v>0.123809523809524</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="K10" t="n">
-        <v>0.137770897832817</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="L10" t="n">
-        <v>0.392543859649123</v>
+        <v>0.3925438596491228</v>
       </c>
       <c r="M10" t="n">
-        <v>0.136363636363636</v>
+        <v>0.1363636363636363</v>
       </c>
       <c r="N10" t="n">
-        <v>0.195378151260504</v>
+        <v>0.1953781512605042</v>
       </c>
       <c r="O10" t="n">
-        <v>0.445238095238095</v>
+        <v>0.4452380952380952</v>
       </c>
       <c r="P10" t="n">
-        <v>0.153947368421053</v>
+        <v>0.1539473684210526</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.153947368421053</v>
+        <v>0.138235294117647</v>
       </c>
       <c r="R10" t="n">
-        <v>0.138235294117647</v>
+        <v>0.1485507246376811</v>
       </c>
       <c r="S10" t="n">
-        <v>0.148550724637681</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.1317135549872122</v>
       </c>
       <c r="U10" t="n">
-        <v>0.131713554987212</v>
+        <v>0.1619318181818181</v>
       </c>
       <c r="V10" t="n">
-        <v>0.161931818181818</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="W10" t="n">
-        <v>0.145833333333333</v>
+        <v>0.1066433566433566</v>
       </c>
       <c r="X10" t="n">
-        <v>0.106643356643357</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.178571428571428</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.439130434782609</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.108187134502924</v>
+        <v>0.4391304347826087</v>
       </c>
     </row>
     <row r="11">
@@ -1342,28 +1278,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.135416666666667</v>
+        <v>0.1354166666666666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.115800865800866</v>
+        <v>0.1158008658008658</v>
       </c>
       <c r="D11" t="n">
         <v>0.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.146381578947368</v>
+        <v>0.1463815789473684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.320833333333333</v>
+        <v>0.3208333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.179144385026738</v>
+        <v>0.1791443850267379</v>
       </c>
       <c r="H11" t="n">
-        <v>0.150909090909091</v>
+        <v>0.1509090909090909</v>
       </c>
       <c r="I11" t="n">
-        <v>0.178947368421053</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="J11" t="n">
         <v>0.185</v>
@@ -1372,52 +1308,46 @@
         <v>0.124401913875598</v>
       </c>
       <c r="L11" t="n">
-        <v>0.370535714285714</v>
+        <v>0.3705357142857143</v>
       </c>
       <c r="M11" t="n">
-        <v>0.195238095238095</v>
+        <v>0.1952380952380952</v>
       </c>
       <c r="N11" t="n">
-        <v>0.156417112299465</v>
+        <v>0.1564171122994652</v>
       </c>
       <c r="O11" t="n">
         <v>0.345</v>
       </c>
       <c r="P11" t="n">
-        <v>0.130252100840336</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.130252100840336</v>
+        <v>0.1287878787878787</v>
       </c>
       <c r="R11" t="n">
-        <v>0.128787878787879</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="S11" t="n">
-        <v>0.133928571428571</v>
+        <v>0.1213235294117647</v>
       </c>
       <c r="T11" t="n">
-        <v>0.121323529411765</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="U11" t="n">
-        <v>0.111455108359133</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="V11" t="n">
-        <v>0.480769230769231</v>
+        <v>0.05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="X11" t="n">
-        <v>0.130252100840336</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="Z11" t="n">
         <v>0.478021978021978</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.103174603174603</v>
       </c>
     </row>
     <row r="12">
@@ -1430,10 +1360,10 @@
         <v>0.25</v>
       </c>
       <c r="C12" t="n">
-        <v>0.266666666666667</v>
+        <v>0.2666666666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.172697368421053</v>
+        <v>0.1726973684210526</v>
       </c>
       <c r="E12" t="n">
         <v>0.1875</v>
@@ -1442,65 +1372,61 @@
         <v>0.188034188034188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.380882352941176</v>
+        <v>0.3808823529411764</v>
       </c>
       <c r="H12" t="n">
-        <v>0.146464646464646</v>
+        <v>0.1464646464646464</v>
       </c>
       <c r="I12" t="n">
-        <v>0.186507936507937</v>
+        <v>0.1865079365079365</v>
       </c>
       <c r="J12" t="n">
-        <v>0.113960113960114</v>
+        <v>0.1139601139601139</v>
       </c>
       <c r="K12" t="n">
-        <v>0.184659090909091</v>
+        <v>0.1846590909090909</v>
       </c>
       <c r="L12" t="n">
-        <v>0.402608695652174</v>
+        <v>0.4026086956521739</v>
       </c>
       <c r="M12" t="n">
-        <v>0.155138339920949</v>
+        <v>0.1551383399209486</v>
       </c>
       <c r="N12" t="n">
-        <v>0.232789855072464</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>0.2327898550724637</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5889423076923077</v>
+      </c>
       <c r="P12" t="n">
-        <v>0.216374269005848</v>
+        <v>0.2163742690058479</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.588942307692308</v>
+        <v>0.1990131578947368</v>
       </c>
       <c r="R12" t="n">
-        <v>0.199013157894737</v>
+        <v>0.09642857142857141</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09642857142857141</v>
+        <v>0.2379679144385026</v>
       </c>
       <c r="T12" t="n">
-        <v>0.237967914438503</v>
+        <v>0.175</v>
       </c>
       <c r="U12" t="n">
-        <v>0.175</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="V12" t="n">
-        <v>0.464285714285714</v>
+        <v>0.1631016042780748</v>
       </c>
       <c r="W12" t="n">
-        <v>0.163101604278075</v>
+        <v>0.2119565217391304</v>
       </c>
       <c r="X12" t="n">
-        <v>0.21195652173913</v>
+        <v>0.1216666666666666</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.121666666666667</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.112631578947368</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.0954545454545454</v>
+        <v>0.1126315789473684</v>
       </c>
     </row>
     <row r="13">
@@ -1510,13 +1436,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.145238095238095</v>
+        <v>0.1452380952380952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.134502923976608</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24812030075188</v>
+        <v>0.2481203007518796</v>
       </c>
       <c r="E13" t="n">
         <v>0.175</v>
@@ -1525,67 +1451,61 @@
         <v>0.135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.320833333333333</v>
+        <v>0.3208333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0.104411764705882</v>
+        <v>0.1044117647058823</v>
       </c>
       <c r="I13" t="n">
         <v>0.07346491228070171</v>
       </c>
       <c r="J13" t="n">
-        <v>0.161030595813205</v>
+        <v>0.1610305958132045</v>
       </c>
       <c r="K13" t="n">
-        <v>0.130555555555556</v>
+        <v>0.1305555555555555</v>
       </c>
       <c r="L13" t="n">
-        <v>0.357142857142857</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="M13" t="n">
-        <v>0.13695652173913</v>
+        <v>0.1369565217391304</v>
       </c>
       <c r="N13" t="n">
-        <v>0.152631578947368</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="O13" t="n">
         <v>0.0889328063241106</v>
       </c>
       <c r="P13" t="n">
-        <v>0.13695652173913</v>
+        <v>0.1369565217391304</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.13695652173913</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="R13" t="n">
-        <v>0.183333333333333</v>
+        <v>0.1223776223776223</v>
       </c>
       <c r="S13" t="n">
-        <v>0.122377622377622</v>
+        <v>0.1384615384615384</v>
       </c>
       <c r="T13" t="n">
-        <v>0.138461538461538</v>
+        <v>0.13</v>
       </c>
       <c r="U13" t="n">
-        <v>0.13</v>
+        <v>0.3396739130434782</v>
       </c>
       <c r="V13" t="n">
-        <v>0.339673913043478</v>
+        <v>0.1289473684210526</v>
       </c>
       <c r="W13" t="n">
-        <v>0.128947368421053</v>
+        <v>0.1369565217391304</v>
       </c>
       <c r="X13" t="n">
-        <v>0.13695652173913</v>
+        <v>0.1608187134502924</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.160818713450292</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.102631578947368</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="14">
@@ -1595,37 +1515,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.159090909090909</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="C14" t="n">
         <v>0.148741418764302</v>
       </c>
       <c r="D14" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.137770897832817</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="F14" t="n">
-        <v>0.210526315789474</v>
+        <v>0.2105263157894736</v>
       </c>
       <c r="G14" t="n">
         <v>0.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.200980392156863</v>
+        <v>0.2009803921568627</v>
       </c>
       <c r="I14" t="n">
-        <v>0.135964912280702</v>
+        <v>0.1359649122807017</v>
       </c>
       <c r="J14" t="n">
-        <v>0.147619047619048</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="K14" t="n">
         <v>0.0838815789473684</v>
       </c>
       <c r="L14" t="n">
-        <v>0.130681818181818</v>
+        <v>0.1306818181818181</v>
       </c>
       <c r="M14" t="n">
         <v>0.088235294117647</v>
@@ -1634,43 +1554,37 @@
         <v>0.0972850678733031</v>
       </c>
       <c r="O14" t="n">
-        <v>0.147157190635451</v>
+        <v>0.1471571906354515</v>
       </c>
       <c r="P14" t="n">
-        <v>0.233333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.233333333333333</v>
+        <v>0.2371794871794871</v>
       </c>
       <c r="R14" t="n">
-        <v>0.237179487179487</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="S14" t="n">
-        <v>0.136645962732919</v>
+        <v>0.14</v>
       </c>
       <c r="T14" t="n">
-        <v>0.14</v>
+        <v>0.2072829131652661</v>
       </c>
       <c r="U14" t="n">
-        <v>0.207282913165266</v>
+        <v>0.4951923076923077</v>
       </c>
       <c r="V14" t="n">
-        <v>0.495192307692308</v>
+        <v>0.1798941798941798</v>
       </c>
       <c r="W14" t="n">
-        <v>0.17989417989418</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="X14" t="n">
-        <v>0.452380952380952</v>
+        <v>0.1096491228070175</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.109649122807017</v>
-      </c>
-      <c r="Z14" t="n">
         <v>0.0910973084886128</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.0980861244019138</v>
       </c>
     </row>
     <row r="15">
@@ -1680,82 +1594,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.147129186602871</v>
+        <v>0.1471291866028708</v>
       </c>
       <c r="C15" t="n">
-        <v>0.164086687306501</v>
+        <v>0.1640866873065015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.301136363636364</v>
+        <v>0.3011363636363636</v>
       </c>
       <c r="E15" t="n">
-        <v>0.134502923976608</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.176691729323308</v>
+        <v>0.1766917293233082</v>
       </c>
       <c r="G15" t="n">
-        <v>0.418803418803419</v>
+        <v>0.4188034188034188</v>
       </c>
       <c r="H15" t="n">
-        <v>0.116883116883117</v>
+        <v>0.1168831168831168</v>
       </c>
       <c r="I15" t="n">
-        <v>0.17156862745098</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="J15" t="n">
-        <v>0.149732620320856</v>
+        <v>0.1497326203208556</v>
       </c>
       <c r="K15" t="n">
-        <v>0.154589371980676</v>
+        <v>0.1545893719806763</v>
       </c>
       <c r="L15" t="n">
         <v>0.149074074074074</v>
       </c>
       <c r="M15" t="n">
-        <v>0.165217391304348</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="N15" t="n">
-        <v>0.150717703349282</v>
+        <v>0.1507177033492823</v>
       </c>
       <c r="O15" t="n">
         <v>0.025</v>
       </c>
       <c r="P15" t="n">
-        <v>0.108766233766234</v>
+        <v>0.1087662337662337</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.108766233766234</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1875</v>
+        <v>0.1583850931677018</v>
       </c>
       <c r="T15" t="n">
-        <v>0.158385093167702</v>
+        <v>0.1269841269841269</v>
       </c>
       <c r="U15" t="n">
-        <v>0.126984126984127</v>
+        <v>0.1633333333333333</v>
       </c>
       <c r="V15" t="n">
-        <v>0.163333333333333</v>
+        <v>0.1552380952380952</v>
       </c>
       <c r="W15" t="n">
-        <v>0.155238095238095</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="X15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0458333333333333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0458333333333333</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.212280701754386</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.0738095238095238</v>
+        <v>0.2122807017543859</v>
       </c>
     </row>
     <row r="16">
@@ -1768,79 +1676,73 @@
         <v>0.1625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.136165577342048</v>
+        <v>0.1361655773420479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.414285714285714</v>
+        <v>0.4142857142857142</v>
       </c>
       <c r="E16" t="n">
         <v>0.096078431372549</v>
       </c>
       <c r="F16" t="n">
-        <v>0.120813397129187</v>
+        <v>0.1208133971291866</v>
       </c>
       <c r="G16" t="n">
         <v>0.0887611749680715</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13695652173913</v>
+        <v>0.1369565217391304</v>
       </c>
       <c r="I16" t="n">
-        <v>0.126984126984127</v>
+        <v>0.1269841269841269</v>
       </c>
       <c r="J16" t="n">
-        <v>0.479757085020243</v>
+        <v>0.4797570850202429</v>
       </c>
       <c r="K16" t="n">
-        <v>0.218888888888889</v>
+        <v>0.2188888888888889</v>
       </c>
       <c r="L16" t="n">
-        <v>0.100961538461538</v>
+        <v>0.1009615384615384</v>
       </c>
       <c r="M16" t="n">
-        <v>0.151515151515151</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="N16" t="n">
-        <v>0.138528138528139</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="O16" t="n">
-        <v>0.152777777777778</v>
+        <v>0.1527777777777777</v>
       </c>
       <c r="P16" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666666666666</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R16" t="n">
-        <v>0.142857142857143</v>
+        <v>0.163235294117647</v>
       </c>
       <c r="S16" t="n">
-        <v>0.163235294117647</v>
+        <v>0.150375939849624</v>
       </c>
       <c r="T16" t="n">
-        <v>0.150375939849624</v>
+        <v>0.1027272727272727</v>
       </c>
       <c r="U16" t="n">
-        <v>0.102727272727273</v>
+        <v>0.1422558922558922</v>
       </c>
       <c r="V16" t="n">
-        <v>0.142255892255892</v>
+        <v>0.1369565217391304</v>
       </c>
       <c r="W16" t="n">
-        <v>0.13695652173913</v>
+        <v>0.3412698412698413</v>
       </c>
       <c r="X16" t="n">
-        <v>0.341269841269841</v>
+        <v>0.19375</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.138888888888889</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.0684782608695652</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="17">
@@ -1850,40 +1752,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.114718614718615</v>
+        <v>0.1147186147186147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.172222222222222</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="D17" t="n">
         <v>0.0505050505050505</v>
       </c>
       <c r="E17" t="n">
-        <v>0.187306501547988</v>
+        <v>0.1873065015479876</v>
       </c>
       <c r="F17" t="n">
         <v>0.125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.169312169312169</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="H17" t="n">
-        <v>0.154411764705882</v>
+        <v>0.1544117647058823</v>
       </c>
       <c r="I17" t="n">
-        <v>0.342307692307692</v>
+        <v>0.3423076923076923</v>
       </c>
       <c r="J17" t="n">
-        <v>0.311904761904762</v>
+        <v>0.3119047619047619</v>
       </c>
       <c r="K17" t="n">
-        <v>0.111111111111111</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L17" t="n">
-        <v>0.196172248803828</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="M17" t="n">
-        <v>0.127631578947368</v>
+        <v>0.1276315789473684</v>
       </c>
       <c r="N17" t="n">
         <v>0.0515873015873015</v>
@@ -1892,40 +1794,34 @@
         <v>0.175</v>
       </c>
       <c r="P17" t="n">
-        <v>0.141608391608392</v>
+        <v>0.1416083916083916</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.141608391608392</v>
+        <v>0.2489130434782608</v>
       </c>
       <c r="R17" t="n">
-        <v>0.248913043478261</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="S17" t="n">
-        <v>0.125874125874126</v>
+        <v>0.086080586080586</v>
       </c>
       <c r="T17" t="n">
-        <v>0.086080586080586</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="U17" t="n">
-        <v>0.206349206349206</v>
+        <v>0.0767045454545454</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0767045454545454</v>
+        <v>0.0515873015873015</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0515873015873015</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X17" t="n">
-        <v>0.714285714285714</v>
+        <v>0.0571895424836601</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0571895424836601</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.140217391304348</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.0738095238095238</v>
+        <v>0.1402173913043478</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1831,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.138095238095238</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.110119047619048</v>
+        <v>0.1101190476190476</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -1956,61 +1852,55 @@
         <v>0.08055555555555551</v>
       </c>
       <c r="I18" t="n">
-        <v>0.217647058823529</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="J18" t="n">
-        <v>0.341818181818182</v>
+        <v>0.3418181818181818</v>
       </c>
       <c r="K18" t="n">
         <v>0.0717703349282296</v>
       </c>
       <c r="L18" t="n">
-        <v>0.103174603174603</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="M18" t="n">
         <v>0.075</v>
       </c>
       <c r="N18" t="n">
-        <v>0.219814241486068</v>
+        <v>0.2198142414860681</v>
       </c>
       <c r="O18" t="n">
-        <v>0.116883116883117</v>
+        <v>0.1168831168831168</v>
       </c>
       <c r="P18" t="n">
-        <v>0.118055555555555</v>
+        <v>0.1180555555555555</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.118055555555555</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="R18" t="n">
-        <v>0.160714285714286</v>
+        <v>0.0912698412698412</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0912698412698412</v>
+        <v>0.3117408906882591</v>
       </c>
       <c r="T18" t="n">
-        <v>0.311740890688259</v>
+        <v>0.1</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1</v>
+        <v>0.1456140350877193</v>
       </c>
       <c r="V18" t="n">
-        <v>0.145614035087719</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="W18" t="n">
-        <v>0.126696832579185</v>
+        <v>0.0625</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0625</v>
+        <v>0.0726190476190476</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0726190476190476</v>
-      </c>
-      <c r="Z18" t="n">
         <v>0.0849673202614379</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.0739348370927318</v>
       </c>
     </row>
     <row r="19">
@@ -2035,67 +1925,61 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="G19" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>0.162280701754386</v>
+        <v>0.1622807017543859</v>
       </c>
       <c r="I19" t="n">
-        <v>0.202797202797203</v>
+        <v>0.2027972027972027</v>
       </c>
       <c r="J19" t="n">
-        <v>0.455882352941176</v>
+        <v>0.4558823529411764</v>
       </c>
       <c r="K19" t="n">
         <v>0.0732323232323232</v>
       </c>
       <c r="L19" t="n">
-        <v>0.146929824561403</v>
+        <v>0.1469298245614035</v>
       </c>
       <c r="M19" t="n">
-        <v>0.210526315789474</v>
+        <v>0.2105263157894736</v>
       </c>
       <c r="N19" t="n">
-        <v>0.13961038961039</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.138888888888889</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="P19" t="n">
-        <v>0.105978260869565</v>
+        <v>0.1059782608695652</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.105978260869565</v>
+        <v>0.0954545454545454</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0954545454545454</v>
+        <v>0.1471291866028708</v>
       </c>
       <c r="S19" t="n">
-        <v>0.147129186602871</v>
+        <v>0.2514880952380952</v>
       </c>
       <c r="T19" t="n">
-        <v>0.251488095238095</v>
+        <v>0.1295289855072463</v>
       </c>
       <c r="U19" t="n">
-        <v>0.129528985507246</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="V19" t="n">
-        <v>0.113636363636364</v>
+        <v>0.4194444444444444</v>
       </c>
       <c r="W19" t="n">
-        <v>0.419444444444444</v>
+        <v>0.1239935587761674</v>
       </c>
       <c r="X19" t="n">
-        <v>0.123993558776167</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.101010101010101</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.105072463768116</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.1050724637681159</v>
       </c>
     </row>
     <row r="20">
@@ -2111,13 +1995,13 @@
         <v>0.09375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.105128205128205</v>
+        <v>0.1051282051282051</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.145833333333333</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="G20" t="n">
         <v>0.0866013071895424</v>
@@ -2126,61 +2010,55 @@
         <v>0.0596491228070175</v>
       </c>
       <c r="I20" t="n">
-        <v>0.460227272727273</v>
+        <v>0.4602272727272727</v>
       </c>
       <c r="J20" t="n">
-        <v>0.107142857142857</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K20" t="n">
-        <v>0.104166666666667</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="L20" t="n">
-        <v>0.130952380952381</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="M20" t="n">
-        <v>0.147619047619048</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="N20" t="n">
-        <v>0.153947368421053</v>
+        <v>0.1539473684210526</v>
       </c>
       <c r="O20" t="n">
-        <v>0.111660079051383</v>
+        <v>0.1116600790513833</v>
       </c>
       <c r="P20" t="n">
-        <v>0.309523809523809</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.309523809523809</v>
+        <v>0.0726190476190476</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0726190476190476</v>
+        <v>0.1026315789473684</v>
       </c>
       <c r="S20" t="n">
-        <v>0.102631578947368</v>
+        <v>0.3212250712250712</v>
       </c>
       <c r="T20" t="n">
-        <v>0.321225071225071</v>
+        <v>0.1152173913043478</v>
       </c>
       <c r="U20" t="n">
-        <v>0.115217391304348</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="V20" t="n">
-        <v>0.151515151515151</v>
+        <v>0.3470588235294117</v>
       </c>
       <c r="W20" t="n">
-        <v>0.347058823529412</v>
+        <v>0.07936507936507931</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07936507936507931</v>
+        <v>0.1076190476190476</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.107619047619048</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.204861111111111</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.103947368421053</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="21">
@@ -2190,82 +2068,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.156923076923077</v>
+        <v>0.1569230769230769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.220238095238095</v>
+        <v>0.2202380952380952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1441647597254</v>
+        <v>0.1441647597254004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.154761904761905</v>
+        <v>0.1547619047619047</v>
       </c>
       <c r="F21" t="n">
-        <v>0.168518518518519</v>
+        <v>0.1685185185185185</v>
       </c>
       <c r="G21" t="n">
-        <v>0.259090909090909</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="H21" t="n">
-        <v>0.130681818181818</v>
+        <v>0.1306818181818181</v>
       </c>
       <c r="I21" t="n">
-        <v>0.101739130434783</v>
+        <v>0.1017391304347826</v>
       </c>
       <c r="J21" t="n">
-        <v>0.134502923976608</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="K21" t="n">
         <v>0.687719298245614</v>
       </c>
       <c r="L21" t="n">
-        <v>0.148601398601399</v>
+        <v>0.1486013986013986</v>
       </c>
       <c r="M21" t="n">
-        <v>0.16695652173913</v>
+        <v>0.1669565217391304</v>
       </c>
       <c r="N21" t="n">
-        <v>0.174242424242424</v>
+        <v>0.1742424242424242</v>
       </c>
       <c r="O21" t="n">
-        <v>0.143181818181818</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="P21" t="n">
-        <v>0.388392857142857</v>
+        <v>0.3883928571428571</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.388392857142857</v>
+        <v>0.09</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09</v>
+        <v>0.1698564593301435</v>
       </c>
       <c r="S21" t="n">
-        <v>0.169856459330144</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="T21" t="n">
-        <v>0.846153846153846</v>
+        <v>0.1778656126482213</v>
       </c>
       <c r="U21" t="n">
-        <v>0.177865612648221</v>
+        <v>0.1739130434782608</v>
       </c>
       <c r="V21" t="n">
-        <v>0.173913043478261</v>
+        <v>0.6154545454545455</v>
       </c>
       <c r="W21" t="n">
-        <v>0.615454545454545</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="X21" t="n">
-        <v>0.108333333333333</v>
+        <v>0.092032967032967</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.092032967032967</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.1622807017543859</v>
       </c>
     </row>
     <row r="22">
@@ -2278,79 +2150,73 @@
         <v>0.213235294117647</v>
       </c>
       <c r="C22" t="n">
-        <v>0.139952153110048</v>
+        <v>0.1399521531100478</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115131578947368</v>
+        <v>0.1151315789473684</v>
       </c>
       <c r="E22" t="n">
-        <v>0.388888888888889</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F22" t="n">
-        <v>0.123478260869565</v>
+        <v>0.1234782608695652</v>
       </c>
       <c r="G22" t="n">
-        <v>0.137770897832817</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="H22" t="n">
         <v>0.125</v>
       </c>
       <c r="I22" t="n">
-        <v>0.138528138528139</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="J22" t="n">
-        <v>0.130952380952381</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="K22" t="n">
-        <v>0.321428571428571</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="L22" t="n">
-        <v>0.264912280701754</v>
+        <v>0.2649122807017544</v>
       </c>
       <c r="M22" t="n">
         <v>0.284313725490196</v>
       </c>
       <c r="N22" t="n">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="O22" t="n">
-        <v>0.197058823529412</v>
+        <v>0.1970588235294118</v>
       </c>
       <c r="P22" t="n">
-        <v>0.227173913043478</v>
+        <v>0.2271739130434782</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.227173913043478</v>
+        <v>0.1890756302521008</v>
       </c>
       <c r="R22" t="n">
-        <v>0.189075630252101</v>
+        <v>0.1359649122807017</v>
       </c>
       <c r="S22" t="n">
-        <v>0.135964912280702</v>
+        <v>0.0890269151138716</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0890269151138716</v>
+        <v>0.1940993788819875</v>
       </c>
       <c r="U22" t="n">
-        <v>0.194099378881987</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="V22" t="n">
-        <v>0.151515151515151</v>
+        <v>0.5743589743589743</v>
       </c>
       <c r="W22" t="n">
-        <v>0.574358974358974</v>
+        <v>0.1208133971291866</v>
       </c>
       <c r="X22" t="n">
-        <v>0.120813397129187</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.101315789473684</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.1013157894736842</v>
       </c>
     </row>
     <row r="23">
@@ -2363,79 +2229,73 @@
         <v>0.2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133689839572192</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="D23" t="n">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="E23" t="n">
-        <v>0.342857142857143</v>
+        <v>0.3428571428571428</v>
       </c>
       <c r="F23" t="n">
         <v>0.188235294117647</v>
       </c>
       <c r="G23" t="n">
-        <v>0.155555555555556</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="H23" t="n">
         <v>0.0434782608695652</v>
       </c>
       <c r="I23" t="n">
-        <v>0.118823529411765</v>
+        <v>0.1188235294117647</v>
       </c>
       <c r="J23" t="n">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="K23" t="n">
-        <v>0.395833333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>0.145833333333333</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="M23" t="n">
-        <v>0.179197994987469</v>
+        <v>0.1791979949874686</v>
       </c>
       <c r="N23" t="n">
-        <v>0.113247863247863</v>
+        <v>0.1132478632478632</v>
       </c>
       <c r="O23" t="n">
         <v>0.101010101010101</v>
       </c>
       <c r="P23" t="n">
-        <v>0.464285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.464285714285714</v>
+        <v>0.1802631578947368</v>
       </c>
       <c r="R23" t="n">
-        <v>0.180263157894737</v>
+        <v>0.1452380952380952</v>
       </c>
       <c r="S23" t="n">
-        <v>0.145238095238095</v>
+        <v>0.1509090909090909</v>
       </c>
       <c r="T23" t="n">
-        <v>0.150909090909091</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="U23" t="n">
-        <v>0.583333333333333</v>
+        <v>0.1363636363636363</v>
       </c>
       <c r="V23" t="n">
-        <v>0.136363636363636</v>
+        <v>0.1068840579710145</v>
       </c>
       <c r="W23" t="n">
-        <v>0.106884057971014</v>
+        <v>0.200592885375494</v>
       </c>
       <c r="X23" t="n">
-        <v>0.200592885375494</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="Z23" t="n">
         <v>0.09027777777777771</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.108187134502924</v>
       </c>
     </row>
     <row r="24">
@@ -2445,16 +2305,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.583333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.145238095238095</v>
+        <v>0.1452380952380952</v>
       </c>
       <c r="D24" t="n">
         <v>0.0888888888888888</v>
       </c>
       <c r="E24" t="n">
-        <v>0.259090909090909</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="F24" t="n">
         <v>0.196594427244582</v>
@@ -2463,64 +2323,58 @@
         <v>0.2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.164086687306501</v>
+        <v>0.1640866873065015</v>
       </c>
       <c r="I24" t="n">
-        <v>0.143589743589743</v>
+        <v>0.1435897435897435</v>
       </c>
       <c r="J24" t="n">
-        <v>0.141447368421053</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="K24" t="n">
         <v>0.3875</v>
       </c>
       <c r="L24" t="n">
-        <v>0.105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="M24" t="n">
-        <v>0.140692640692641</v>
+        <v>0.1406926406926407</v>
       </c>
       <c r="N24" t="n">
-        <v>0.236842105263158</v>
+        <v>0.2368421052631578</v>
       </c>
       <c r="O24" t="n">
         <v>0.150735294117647</v>
       </c>
       <c r="P24" t="n">
-        <v>0.120813397129187</v>
+        <v>0.1208133971291866</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.120813397129187</v>
+        <v>0.0838815789473684</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0838815789473684</v>
+        <v>0.1359649122807017</v>
       </c>
       <c r="S24" t="n">
-        <v>0.135964912280702</v>
+        <v>0.09761904761904761</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.3933823529411764</v>
       </c>
       <c r="U24" t="n">
-        <v>0.393382352941176</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="V24" t="n">
-        <v>0.111455108359133</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="W24" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="X24" t="n">
-        <v>0.111455108359133</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.178947368421053</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.136513157894737</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.110119047619048</v>
+        <v>0.1365131578947368</v>
       </c>
     </row>
     <row r="25">
@@ -2530,28 +2384,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.280392156862745</v>
+        <v>0.2803921568627451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12406015037594</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173611111111111</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="E25" t="n">
-        <v>0.408333333333333</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="F25" t="n">
         <v>0.198051948051948</v>
       </c>
       <c r="G25" t="n">
-        <v>0.145833333333333</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0.185964912280702</v>
+        <v>0.1859649122807017</v>
       </c>
       <c r="I25" t="n">
-        <v>0.11437908496732</v>
+        <v>0.1143790849673202</v>
       </c>
       <c r="J25" t="n">
         <v>0.1</v>
@@ -2560,7 +2414,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>0.116666666666667</v>
+        <v>0.1166666666666666</v>
       </c>
       <c r="M25" t="n">
         <v>0.165266106442577</v>
@@ -2569,43 +2423,37 @@
         <v>0.09375</v>
       </c>
       <c r="O25" t="n">
-        <v>0.103174603174603</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="P25" t="n">
-        <v>0.102631578947368</v>
+        <v>0.1026315789473684</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.102631578947368</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0980861244019138</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0980861244019138</v>
+        <v>0.1625</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1625</v>
+        <v>0.3219696969696969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.321969696969697</v>
+        <v>0.0764411027568922</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0764411027568922</v>
+        <v>0.0763157894736842</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0763157894736842</v>
+        <v>0.1188235294117647</v>
       </c>
       <c r="X25" t="n">
-        <v>0.118823529411765</v>
+        <v>0.3673076923076923</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.367307692307692</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.122222222222222</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.119298245614035</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="26">
@@ -2615,82 +2463,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.367132867132867</v>
+        <v>0.3671328671328671</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195652173913043</v>
+        <v>0.1956521739130434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.196428571428571</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="E26" t="n">
         <v>0.08630952380952379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.458333333333333</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G26" t="n">
-        <v>0.146464646464646</v>
+        <v>0.1464646464646464</v>
       </c>
       <c r="H26" t="n">
-        <v>0.200549450549451</v>
+        <v>0.2005494505494505</v>
       </c>
       <c r="I26" t="n">
         <v>0.165903890160183</v>
       </c>
       <c r="J26" t="n">
-        <v>0.212885154061625</v>
+        <v>0.2128851540616246</v>
       </c>
       <c r="K26" t="n">
-        <v>0.119214586255259</v>
+        <v>0.1192145862552594</v>
       </c>
       <c r="L26" t="n">
-        <v>0.153409090909091</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="M26" t="n">
-        <v>0.120772946859903</v>
+        <v>0.1207729468599033</v>
       </c>
       <c r="N26" t="n">
-        <v>0.185185185185185</v>
+        <v>0.1851851851851851</v>
       </c>
       <c r="O26" t="n">
-        <v>0.158333333333333</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="P26" t="n">
-        <v>0.134502923976608</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.134502923976608</v>
+        <v>0.1463815789473684</v>
       </c>
       <c r="R26" t="n">
-        <v>0.146381578947368</v>
+        <v>0.1225</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1225</v>
+        <v>0.1872294372294372</v>
       </c>
       <c r="T26" t="n">
-        <v>0.187229437229437</v>
+        <v>0.6586538461538461</v>
       </c>
       <c r="U26" t="n">
-        <v>0.658653846153846</v>
+        <v>0.1589473684210526</v>
       </c>
       <c r="V26" t="n">
-        <v>0.158947368421053</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="W26" t="n">
-        <v>0.173611111111111</v>
+        <v>0.1619047619047618</v>
       </c>
       <c r="X26" t="n">
-        <v>0.161904761904762</v>
+        <v>0.1805555555555555</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.180555555555555</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.228571428571429</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.2285714285714285</v>
       </c>
     </row>
     <row r="27">
@@ -2703,79 +2545,73 @@
         <v>0.4</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195238095238095</v>
+        <v>0.1952380952380952</v>
       </c>
       <c r="D27" t="n">
         <v>0.08040935672514619</v>
       </c>
       <c r="E27" t="n">
-        <v>0.19047619047619</v>
+        <v>0.1904761904761904</v>
       </c>
       <c r="F27" t="n">
-        <v>0.374183006535948</v>
+        <v>0.3741830065359477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.130252100840336</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="H27" t="n">
-        <v>0.138461538461538</v>
+        <v>0.1384615384615384</v>
       </c>
       <c r="I27" t="n">
-        <v>0.11437908496732</v>
+        <v>0.1143790849673202</v>
       </c>
       <c r="J27" t="n">
-        <v>0.122619047619048</v>
+        <v>0.1226190476190476</v>
       </c>
       <c r="K27" t="n">
         <v>0.0571895424836601</v>
       </c>
       <c r="L27" t="n">
-        <v>0.138528138528139</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2188995215311</v>
+        <v>0.2188995215311004</v>
       </c>
       <c r="N27" t="n">
-        <v>0.403508771929824</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="O27" t="n">
-        <v>0.212885154061625</v>
+        <v>0.2128851540616246</v>
       </c>
       <c r="P27" t="n">
-        <v>0.162698412698413</v>
+        <v>0.1626984126984126</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.162698412698413</v>
+        <v>0.119298245614035</v>
       </c>
       <c r="R27" t="n">
-        <v>0.119298245614035</v>
+        <v>0.1457800511508951</v>
       </c>
       <c r="S27" t="n">
-        <v>0.145780051150895</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="T27" t="n">
-        <v>0.191111111111111</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="U27" t="n">
-        <v>0.118181818181818</v>
+        <v>0.1128364389233954</v>
       </c>
       <c r="V27" t="n">
-        <v>0.112836438923395</v>
+        <v>0.1128364389233954</v>
       </c>
       <c r="W27" t="n">
-        <v>0.112836438923395</v>
+        <v>0.0919117647058823</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0919117647058823</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.369565217391304</v>
-      </c>
-      <c r="Z27" t="n">
         <v>0.09347826086956521</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.111455108359133</v>
       </c>
     </row>
     <row r="28">
@@ -2785,7 +2621,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.148181818181818</v>
+        <v>0.1481818181818182</v>
       </c>
       <c r="C28" t="n">
         <v>0.173444976076555</v>
@@ -2797,70 +2633,64 @@
         <v>0.08204334365325069</v>
       </c>
       <c r="F28" t="n">
-        <v>0.434782608695652</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G28" t="n">
-        <v>0.162337662337662</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="H28" t="n">
-        <v>0.213636363636364</v>
+        <v>0.2136363636363636</v>
       </c>
       <c r="I28" t="n">
-        <v>0.13871635610766</v>
+        <v>0.1387163561076604</v>
       </c>
       <c r="J28" t="n">
-        <v>0.114906832298137</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="K28" t="n">
-        <v>0.196172248803828</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="L28" t="n">
-        <v>0.217836257309941</v>
+        <v>0.2178362573099415</v>
       </c>
       <c r="M28" t="n">
-        <v>0.617216117216117</v>
+        <v>0.6172161172161172</v>
       </c>
       <c r="N28" t="n">
-        <v>0.330882352941176</v>
+        <v>0.3308823529411764</v>
       </c>
       <c r="O28" t="n">
         <v>0.156084656084656</v>
       </c>
       <c r="P28" t="n">
-        <v>0.155138339920949</v>
+        <v>0.1551383399209486</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.155138339920949</v>
+        <v>0.1578947368421052</v>
       </c>
       <c r="R28" t="n">
-        <v>0.157894736842105</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="S28" t="n">
-        <v>0.162337662337662</v>
+        <v>0.1768774703557312</v>
       </c>
       <c r="T28" t="n">
-        <v>0.176877470355731</v>
+        <v>0.1009316770186335</v>
       </c>
       <c r="U28" t="n">
-        <v>0.100931677018633</v>
+        <v>0.155</v>
       </c>
       <c r="V28" t="n">
-        <v>0.155</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="W28" t="n">
-        <v>0.303030303030303</v>
+        <v>0.0871212121212121</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0871212121212121</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.535714285714286</v>
-      </c>
-      <c r="Z28" t="n">
         <v>0.141025641025641</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.0869565217391304</v>
       </c>
     </row>
     <row r="29">
@@ -2870,82 +2700,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.150909090909091</v>
+        <v>0.1509090909090909</v>
       </c>
       <c r="C29" t="n">
-        <v>0.496212121212121</v>
+        <v>0.4962121212121212</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1441647597254</v>
+        <v>0.1441647597254004</v>
       </c>
       <c r="E29" t="n">
-        <v>0.278846153846154</v>
+        <v>0.2788461538461538</v>
       </c>
       <c r="F29" t="n">
-        <v>0.642424242424242</v>
+        <v>0.6424242424242425</v>
       </c>
       <c r="G29" t="n">
-        <v>0.133689839572192</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="H29" t="n">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411764</v>
       </c>
       <c r="I29" t="n">
-        <v>0.166666666666667</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="J29" t="n">
-        <v>0.182539682539683</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="K29" t="n">
-        <v>0.114906832298137</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="L29" t="n">
-        <v>0.118478260869565</v>
+        <v>0.1184782608695652</v>
       </c>
       <c r="M29" t="n">
-        <v>0.277777777777778</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352173913043478</v>
+        <v>0.3521739130434783</v>
       </c>
       <c r="O29" t="n">
-        <v>0.143181818181818</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="P29" t="n">
-        <v>0.156126482213439</v>
+        <v>0.1561264822134387</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.156126482213439</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="R29" t="n">
-        <v>0.158333333333333</v>
+        <v>0.1589673913043478</v>
       </c>
       <c r="S29" t="n">
-        <v>0.158967391304348</v>
+        <v>0.1625</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1625</v>
+        <v>0.05625</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05625</v>
+        <v>0.1047619047619047</v>
       </c>
       <c r="V29" t="n">
-        <v>0.104761904761905</v>
+        <v>0.206578947368421</v>
       </c>
       <c r="W29" t="n">
-        <v>0.206578947368421</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="X29" t="n">
-        <v>0.176470588235294</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.13961038961039</v>
-      </c>
-      <c r="Z29" t="n">
         <v>0.138235294117647</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="30">
@@ -2955,82 +2779,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.106442577030812</v>
+        <v>0.1064425770308123</v>
       </c>
       <c r="C30" t="n">
-        <v>0.285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D30" t="n">
-        <v>0.125490196078431</v>
+        <v>0.1254901960784313</v>
       </c>
       <c r="E30" t="n">
-        <v>0.172697368421053</v>
+        <v>0.1726973684210526</v>
       </c>
       <c r="F30" t="n">
-        <v>0.146464646464646</v>
+        <v>0.1464646464646464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.18609022556391</v>
+        <v>0.1860902255639097</v>
       </c>
       <c r="H30" t="n">
-        <v>0.216666666666667</v>
+        <v>0.2166666666666666</v>
       </c>
       <c r="I30" t="n">
-        <v>0.133928571428571</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="J30" t="n">
-        <v>0.105263157894737</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K30" t="n">
-        <v>0.128787878787879</v>
+        <v>0.1287878787878787</v>
       </c>
       <c r="L30" t="n">
         <v>0.0753588516746411</v>
       </c>
       <c r="M30" t="n">
-        <v>0.382608695652174</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="N30" t="n">
-        <v>0.547619047619048</v>
+        <v>0.5476190476190476</v>
       </c>
       <c r="O30" t="n">
-        <v>0.12406015037594</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="P30" t="n">
-        <v>0.121323529411765</v>
+        <v>0.1213235294117647</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.121323529411765</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="R30" t="n">
-        <v>0.170673076923077</v>
+        <v>0.3912280701754386</v>
       </c>
       <c r="S30" t="n">
-        <v>0.391228070175439</v>
+        <v>0.1405228758169934</v>
       </c>
       <c r="T30" t="n">
-        <v>0.140522875816993</v>
+        <v>0.1625</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1625</v>
+        <v>0.1026315789473684</v>
       </c>
       <c r="V30" t="n">
-        <v>0.102631578947368</v>
+        <v>0.1372282608695652</v>
       </c>
       <c r="W30" t="n">
-        <v>0.137228260869565</v>
+        <v>0.10625</v>
       </c>
       <c r="X30" t="n">
-        <v>0.10625</v>
+        <v>0.1681818181818181</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.168181818181818</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.127083333333333</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.111111111111111</v>
+        <v>0.1270833333333333</v>
       </c>
     </row>
     <row r="31">
@@ -3040,28 +2858,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.201515151515152</v>
+        <v>0.2015151515151515</v>
       </c>
       <c r="C31" t="n">
-        <v>0.429924242424242</v>
+        <v>0.4299242424242424</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221804511278195</v>
+        <v>0.2218045112781954</v>
       </c>
       <c r="E31" t="n">
-        <v>0.196172248803828</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="F31" t="n">
-        <v>0.113571428571429</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="G31" t="n">
-        <v>0.203703703703704</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="H31" t="n">
-        <v>0.464285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="I31" t="n">
-        <v>0.12406015037594</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="J31" t="n">
         <v>0.202445652173913</v>
@@ -3070,52 +2888,46 @@
         <v>0.256578947368421</v>
       </c>
       <c r="L31" t="n">
-        <v>0.16695652173913</v>
+        <v>0.1669565217391304</v>
       </c>
       <c r="M31" t="n">
-        <v>0.646153846153846</v>
+        <v>0.6461538461538461</v>
       </c>
       <c r="N31" t="n">
         <v>0.1</v>
       </c>
       <c r="O31" t="n">
-        <v>0.124242424242424</v>
+        <v>0.1242424242424242</v>
       </c>
       <c r="P31" t="n">
-        <v>0.152777777777778</v>
+        <v>0.1527777777777777</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.152777777777778</v>
+        <v>0.2163742690058479</v>
       </c>
       <c r="R31" t="n">
-        <v>0.216374269005848</v>
+        <v>0.4</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4</v>
+        <v>0.1622807017543859</v>
       </c>
       <c r="T31" t="n">
-        <v>0.162280701754386</v>
+        <v>0.1521739130434782</v>
       </c>
       <c r="U31" t="n">
-        <v>0.152173913043478</v>
+        <v>0.1081818181818181</v>
       </c>
       <c r="V31" t="n">
-        <v>0.108181818181818</v>
+        <v>0.225</v>
       </c>
       <c r="W31" t="n">
-        <v>0.225</v>
+        <v>0.1931216931216931</v>
       </c>
       <c r="X31" t="n">
-        <v>0.193121693121693</v>
+        <v>0.071078431372549</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.071078431372549</v>
-      </c>
-      <c r="Z31" t="n">
         <v>0.19375</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.0910973084886128</v>
       </c>
     </row>
   </sheetData>

--- a/CNIntelligibility/intelligibility_jaccard.xlsx
+++ b/CNIntelligibility/intelligibility_jaccard.xlsx
@@ -563,2371 +563,2371 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3463203463203463</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1291666666666666</v>
+        <v>0.1213235294117647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1402173913043478</v>
+        <v>0.1395881006864988</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15</v>
+        <v>0.0955555555555555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0954545454545454</v>
+        <v>0.09769230769230761</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0726190476190476</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.08297413793103441</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1752380952380952</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.092258064516129</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1716791979949874</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1276315789473684</v>
+        <v>0.1195286195286195</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="R2" t="n">
+        <v>0.1483516483516483</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1136363636363636</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6428571428571428</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0947293447293447</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.114074074074074</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.212797619047619</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2302631578947368</v>
-      </c>
       <c r="W2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2426470588235294</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.1452380952380952</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.2991071428571428</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.1726973684210526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.4971014492753622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.1270053475935829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.46875</v>
+        <v>0.4694444444444444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1098901098901098</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1352380952380952</v>
+        <v>0.1126315789473684</v>
       </c>
       <c r="I3" t="n">
-        <v>0.188235294117647</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="J3" t="n">
+        <v>0.09347826086956521</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1060025542784163</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1277173913043478</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1252173913043478</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1217391304347826</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1252173913043478</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.096078431372549</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.133399209486166</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1152173913043478</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1269841269841269</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.117037037037037</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.1625</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1076190476190476</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.165903890160183</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5761904761904761</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1534526854219949</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1675191815856777</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1561264822134387</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.2245989304812834</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1590909090909091</v>
-      </c>
       <c r="W3" t="n">
-        <v>0.1485507246376811</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3840579710144927</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.1168831168831168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1669565217391304</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1446488294314381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.1052173913043478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.11</v>
+        <v>0.0827272727272727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.493006993006993</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1861471861471861</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0884615384615384</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1846590909090909</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.1063321385902031</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1993464052287581</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6761133603238867</v>
+        <v>0.8474264705882353</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.1031468531468531</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1291666666666666</v>
+        <v>0.1188235294117647</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1494565217391304</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.10727969348659</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1155555555555555</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1534090909090909</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2159090909090909</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1168831168831168</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5181818181818182</v>
+        <v>0.6917293233082706</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1715686274509804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1017241379310344</v>
+        <v>0.1183908045977011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.0896686159844054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.165158371040724</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="F5" t="n">
-        <v>0.625</v>
+        <v>0.4551630434782608</v>
       </c>
       <c r="G5" t="n">
+        <v>0.1324786324786324</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1041666666666666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1325757575757575</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0754985754985755</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.1237373737373737</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1640866873065015</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1377708978328173</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1561264822134387</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.1726190476190476</v>
+        <v>0.09769230769230761</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3722222222222222</v>
+        <v>0.6928104575163399</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3882575757575757</v>
+        <v>0.4456521739130434</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1224256292906178</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1265664160401002</v>
+        <v>0.0805152979066022</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1413690476190476</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1651785714285714</v>
+        <v>0.1324110671936759</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1671826625386996</v>
+        <v>0.0880541871921182</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1608187134502924</v>
+        <v>0.07179487179487171</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1055555555555555</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1463815789473684</v>
+        <v>0.1009615384615384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.025</v>
+        <v>0.1184615384615384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.3558823529411764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1264880952380952</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1425</v>
+        <v>0.1060794044665012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1577380952380952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1926470588235294</v>
+        <v>0.125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1588235294117647</v>
+        <v>0.1459276018099547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1114285714285714</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1180555555555555</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1225</v>
+        <v>0.1451048951048951</v>
       </c>
       <c r="M6" t="n">
-        <v>0.322463768115942</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="O6" t="n">
-        <v>0.208235294117647</v>
+        <v>0.0990338164251207</v>
       </c>
       <c r="P6" t="n">
-        <v>0.213235294117647</v>
+        <v>0.105295566502463</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.188235294117647</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.760061919504644</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1768774703557312</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1886363636363636</v>
+        <v>0.0933908045977011</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1700404858299595</v>
+        <v>0.1281818181818181</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1534526854219949</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="W6" t="n">
-        <v>0.075</v>
+        <v>0.1114058355437665</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.1514285714285714</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1079545454545454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.1047619047619047</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5804953560371517</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0826330532212885</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1152173913043478</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1659090909090909</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1016666666666666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6131578947368421</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.1583333333333333</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1623376623376623</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.140527950310559</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.4855072463768116</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1464285714285714</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.1180555555555555</v>
+        <v>0.1038961038961038</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2149122807017544</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1742424242424242</v>
+        <v>0.1114285714285714</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6128205128205129</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1276190476190476</v>
+        <v>0.1004464285714285</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.1402173913043478</v>
       </c>
       <c r="P7" t="n">
-        <v>0.113095238095238</v>
+        <v>0.0889328063241106</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.1081871345029239</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.4373401534526854</v>
       </c>
       <c r="S7" t="n">
-        <v>0.142156862745098</v>
+        <v>0.1155555555555555</v>
       </c>
       <c r="T7" t="n">
+        <v>0.1625</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.1583333333333333</v>
       </c>
-      <c r="U7" t="n">
-        <v>0.09846153846153841</v>
-      </c>
       <c r="V7" t="n">
-        <v>0.1034782608695652</v>
+        <v>0.1387163561076604</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1245421245421245</v>
+        <v>0.1076190476190476</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0747282608695652</v>
+        <v>0.1204013377926421</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2036199095022624</v>
+        <v>0.1576923076923077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1551383399209486</v>
+        <v>0.1619565217391304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.7642857142857142</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0982142857142857</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3348214285714286</v>
+        <v>0.5618421052631579</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1116600790513833</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="K8" t="n">
-        <v>0.148235294117647</v>
+        <v>0.0880541871921182</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1802631578947368</v>
+        <v>0.08545454545454539</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1569230769230769</v>
+        <v>0.0969827586206896</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1217532467532467</v>
+        <v>0.1574675324675324</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1441647597254004</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1031746031746031</v>
+        <v>0.1149999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3637820512820512</v>
+        <v>0.5676691729323309</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1619565217391304</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1681818181818181</v>
+        <v>0.1022544283413848</v>
       </c>
       <c r="U8" t="n">
-        <v>0.244047619047619</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1890756302521008</v>
+        <v>0.09704968944099369</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1090686274509804</v>
+        <v>0.1204545454545454</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1903846153846153</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3257575757575757</v>
+        <v>0.6036414565826331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1909090909090909</v>
+        <v>0.1022544283413848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1481818181818182</v>
+        <v>0.1106060606060606</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1034782608695652</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1035714285714285</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1047619047619047</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1350574712643678</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1346153846153846</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1225</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.136574074074074</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1047619047619047</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7801857585139318</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1207729468599033</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.1079545454545454</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8466386554621849</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.07571428571428571</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.125</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.1372282608695652</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1842105263157894</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4318181818181817</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1926470588235294</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1431818181818182</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.09761904761904761</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1583333333333333</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.08125</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.4880952380952381</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.1031746031746031</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.1622807017543859</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.1885964912280701</v>
-      </c>
       <c r="V9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1225</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1611253196930946</v>
+        <v>0.1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1715686274509804</v>
+        <v>0.08670033670033669</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.6532738095238095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1885964912280701</v>
+        <v>0.1183908045977011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1314285714285714</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1990131578947368</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1375</v>
+        <v>0.1203208556149732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1009316770186335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1143790849673202</v>
+        <v>0.1326315789473684</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1238095238095238</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.099025974025974</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3925438596491228</v>
+        <v>0.8020833333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.1139601139601139</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1953781512605042</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4452380952380952</v>
+        <v>0.4607142857142857</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1539473684210526</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.138235294117647</v>
+        <v>0.0919117647058823</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1485507246376811</v>
+        <v>0.1141774891774891</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0957142857142857</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1317135549872122</v>
+        <v>0.0717391304347826</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1619318181818181</v>
+        <v>0.134074074074074</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1066433566433566</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4391304347826087</v>
+        <v>0.6228070175438596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1354166666666666</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1158008658008658</v>
+        <v>0.0957142857142857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1463815789473684</v>
+        <v>0.08040935672514619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3208333333333333</v>
+        <v>0.1025</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1791443850267379</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1509090909090909</v>
+        <v>0.1125</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.06818181818181809</v>
       </c>
       <c r="J11" t="n">
-        <v>0.185</v>
+        <v>0.1016666666666666</v>
       </c>
       <c r="K11" t="n">
-        <v>0.124401913875598</v>
+        <v>0.1034782608695652</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3705357142857143</v>
+        <v>0.5697368421052631</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.0906593406593406</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1564171122994652</v>
+        <v>0.112037037037037</v>
       </c>
       <c r="O11" t="n">
-        <v>0.345</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1302521008403361</v>
+        <v>0.1009615384615384</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1287878787878787</v>
+        <v>0.09153318077803201</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.1681818181818181</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1213235294117647</v>
+        <v>0.1576923076923077</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.7875</v>
       </c>
       <c r="V11" t="n">
-        <v>0.05</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1302521008403361</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.478021978021978</v>
+        <v>0.440340909090909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2666666666666666</v>
+        <v>0.1098901098901098</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1726973684210526</v>
+        <v>0.1702898550724637</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1875</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3808823529411764</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1464646464646464</v>
+        <v>0.1607744107744107</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1865079365079365</v>
+        <v>0.0849999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1139601139601139</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1846590909090909</v>
+        <v>0.0969827586206896</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4026086956521739</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1551383399209486</v>
+        <v>0.1366396761133603</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2327898550724637</v>
+        <v>0.0997001499250374</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5889423076923077</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2163742690058479</v>
+        <v>0.0899503722084367</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1990131578947368</v>
+        <v>0.1363636363636363</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09642857142857141</v>
+        <v>0.1089655172413793</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2379679144385026</v>
+        <v>0.1169772256728778</v>
       </c>
       <c r="T12" t="n">
-        <v>0.175</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1631016042780748</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2119565217391304</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1216666666666666</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1126315789473684</v>
+        <v>0.09934318555008199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1452380952380952</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.1471428571428571</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2481203007518796</v>
+        <v>0.46875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.175</v>
+        <v>0.094017094017094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.135</v>
+        <v>0.0844827586206896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3208333333333333</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1044117647058823</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07346491228070171</v>
+        <v>0.0712560386473429</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1610305958132045</v>
+        <v>0.1116600790513833</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1305555555555555</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.7048611111111112</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1022544283413848</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1526315789473684</v>
+        <v>0.092032967032967</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0889328063241106</v>
+        <v>0.125</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1502849002849002</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.1166666666666666</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1223776223776223</v>
+        <v>0.105911330049261</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="T13" t="n">
-        <v>0.13</v>
+        <v>0.1240409207161125</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3396739130434782</v>
+        <v>0.4227272727272727</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1289473684210526</v>
+        <v>0.1469298245614035</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1875</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1608187134502924</v>
+        <v>0.1096837944664031</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1574074074074073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.148741418764302</v>
+        <v>0.1158008658008658</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2996323529411764</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.050125313283208</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.1160714285714285</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2009803921568627</v>
+        <v>0.07573632538569421</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1359649122807017</v>
+        <v>0.1125</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0838815789473684</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1306818181818181</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.088235294117647</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0972850678733031</v>
+        <v>0.0749336870026525</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1471571906354515</v>
+        <v>0.1675925925925925</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2371794871794871</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1366459627329192</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="S14" t="n">
-        <v>0.14</v>
+        <v>0.1613712374581939</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2072829131652661</v>
+        <v>0.0854241338112305</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4951923076923077</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1798941798941798</v>
+        <v>0.1009316770186335</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.1054545454545454</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0910973084886128</v>
+        <v>0.067287784679089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1471291866028708</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1640866873065015</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.2704678362573099</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1766917293233082</v>
+        <v>0.0933908045977011</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4188034188034188</v>
+        <v>0.6378787878787879</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1168831168831168</v>
+        <v>0.1107142857142857</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1715686274509804</v>
+        <v>0.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1497326203208556</v>
+        <v>0.1425120772946859</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1545893719806763</v>
+        <v>0.1286231884057971</v>
       </c>
       <c r="L15" t="n">
-        <v>0.149074074074074</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1507177033492823</v>
+        <v>0.1521739130434782</v>
       </c>
       <c r="O15" t="n">
-        <v>0.025</v>
+        <v>0.0889655172413793</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1087662337662337</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.225</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1875</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1583850931677018</v>
+        <v>0.1098484848484848</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1269841269841269</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1633333333333333</v>
+        <v>0.1162402669632925</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1552380952380952</v>
+        <v>0.155</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6797385620915033</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0458333333333333</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2122807017543859</v>
+        <v>0.0881818181818181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1625</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1361655773420479</v>
+        <v>0.092032967032967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4142857142857142</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.096078431372549</v>
+        <v>0.0941558441558441</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1208133971291866</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0887611749680715</v>
+        <v>0.0856321839080459</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1079545454545454</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1269841269841269</v>
+        <v>0.1016666666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4797570850202429</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2188888888888889</v>
+        <v>0.1025</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1009615384615384</v>
+        <v>0.1060025542784163</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1521739130434782</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1385281385281385</v>
+        <v>0.1291208791208791</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1527777777777777</v>
+        <v>0.1144827586206896</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.1455026455026455</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1990131578947368</v>
       </c>
       <c r="R16" t="n">
-        <v>0.163235294117647</v>
+        <v>0.0912698412698412</v>
       </c>
       <c r="S16" t="n">
-        <v>0.150375939849624</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1027272727272727</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1422558922558922</v>
+        <v>0.1451048951048951</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1081818181818181</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.4904761904761904</v>
       </c>
       <c r="X16" t="n">
-        <v>0.19375</v>
+        <v>0.1084656084656084</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1671428571428571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1147186147186147</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1722222222222222</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.1151315789473684</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1873065015479876</v>
+        <v>0.0555555555555555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.125</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1693121693121693</v>
+        <v>0.1059782608695652</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1544117647058823</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3423076923076923</v>
+        <v>0.2569444444444444</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3119047619047619</v>
+        <v>0.1593567251461988</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1961722488038277</v>
+        <v>0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1276315789473684</v>
+        <v>0.0611888111888111</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0515873015873015</v>
+        <v>0.1224256292906178</v>
       </c>
       <c r="O17" t="n">
-        <v>0.175</v>
+        <v>0.0763888888888888</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1416083916083916</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2489130434782608</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1258741258741259</v>
+        <v>0.0454545454545454</v>
       </c>
       <c r="S17" t="n">
-        <v>0.086080586080586</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.03125</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0767045454545454</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0515873015873015</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6390977443609023</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0571895424836601</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1402173913043478</v>
+        <v>0.06926406926406919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1380952380952381</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1101190476190476</v>
+        <v>0.0584415584415584</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0486111111111111</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.06270903010033441</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08055555555555551</v>
+        <v>0.025</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2176470588235294</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3418181818181818</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0717703349282296</v>
+        <v>0.06347826086956521</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1031746031746031</v>
+        <v>0.0639730639730639</v>
       </c>
       <c r="M18" t="n">
-        <v>0.075</v>
+        <v>0.0834782608695652</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2198142414860681</v>
+        <v>0.037087912087912</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1168831168831168</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1180555555555555</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0912698412698412</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3117408906882591</v>
+        <v>0.2368421052631578</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1456140350877193</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1266968325791855</v>
+        <v>0.1309090909090909</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0625</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0726190476190476</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0849673202614379</v>
+        <v>0.0489247311827956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0958333333333333</v>
+        <v>0.0763157894736842</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0627272727272727</v>
+        <v>0.09347826086956521</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0540935672514619</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08125</v>
+        <v>0.0555555555555555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2027972027972027</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4558823529411764</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1469298245614035</v>
+        <v>0.0622710622710622</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1396103896103896</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1059782608695652</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0954545454545454</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1471291866028708</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2514880952380952</v>
+        <v>0.10625</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1295289855072463</v>
+        <v>0.1076190476190476</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.0866666666666666</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4194444444444444</v>
+        <v>0.2039473684210526</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1239935587761674</v>
+        <v>0.1128364389233954</v>
       </c>
       <c r="X19" t="n">
-        <v>0.101010101010101</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1050724637681159</v>
+        <v>0.0572100313479623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07729468599033811</v>
+        <v>0.1054545454545454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09375</v>
+        <v>0.0608974358974358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1051282051282051</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="E20" t="n">
+        <v>0.0645833333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0755555555555555</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0773809523809523</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3080357142857143</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0817204301075268</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1036789297658862</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0511494252873563</v>
+      </c>
+      <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0866013071895424</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0596491228070175</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.4602272727272727</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1041666666666666</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.1309523809523809</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.1476190476190476</v>
-      </c>
       <c r="N20" t="n">
-        <v>0.1539473684210526</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1116600790513833</v>
+        <v>0.0465367965367965</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.4409722222222222</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0726190476190476</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3212250712250712</v>
+        <v>0.5163398692810457</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1152173913043478</v>
+        <v>0.0768115942028985</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3470588235294117</v>
+        <v>0.1067251461988304</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07936507936507931</v>
+        <v>0.0562678062678062</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1076190476190476</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.06944444444444441</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1569230769230769</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2202380952380952</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1441647597254004</v>
+        <v>0.1004901960784313</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.0834782608695652</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1685185185185185</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2590909090909091</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1306818181818181</v>
+        <v>0.09347826086956521</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1017391304347826</v>
+        <v>0.0828698553948832</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="K21" t="n">
-        <v>0.687719298245614</v>
+        <v>0.2733918128654971</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1486013986013986</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1669565217391304</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1742424242424242</v>
+        <v>0.025</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1431818181818182</v>
+        <v>0.1052173913043478</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3883928571428571</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09</v>
+        <v>0.0458333333333333</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1698564593301435</v>
+        <v>0.0563186813186813</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.674812030075188</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1778656126482213</v>
+        <v>0.0557275541795665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1739130434782608</v>
+        <v>0.0425724637681159</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6154545454545455</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="X21" t="n">
-        <v>0.092032967032967</v>
+        <v>0.0849999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.0791925465838509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.213235294117647</v>
+        <v>0.0866013071895424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1399521531100478</v>
+        <v>0.0454545454545454</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1151315789473684</v>
+        <v>0.09</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1234782608695652</v>
+        <v>0.1204013377926421</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.0506117908787541</v>
       </c>
       <c r="H22" t="n">
-        <v>0.125</v>
+        <v>0.0375</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1385281385281385</v>
+        <v>0.100250626566416</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1309523809523809</v>
+        <v>0.0427272727272727</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3214285714285714</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2649122807017544</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="M22" t="n">
-        <v>0.284313725490196</v>
+        <v>0.025</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1970588235294118</v>
+        <v>0.0597643097643097</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2271739130434782</v>
+        <v>0.4425770308123249</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1890756302521008</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1359649122807017</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0890269151138716</v>
+        <v>0.0544827586206896</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1940993788819875</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.0560675883256528</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5743589743589743</v>
+        <v>0.3959330143540669</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1208133971291866</v>
+        <v>0.09953703703703699</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.0625</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1013157894736842</v>
+        <v>0.0884615384615384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1336898395721925</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1470588235294117</v>
+        <v>0.0553160919540229</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3428571428571428</v>
+        <v>0.1676470588235294</v>
       </c>
       <c r="F23" t="n">
-        <v>0.188235294117647</v>
+        <v>0.061335403726708</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1555555555555555</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1188235294117647</v>
+        <v>0.0389805097451274</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.06331168831168831</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.7706766917293233</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0805152979066022</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1791979949874686</v>
+        <v>0.0753968253968253</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1132478632478632</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="O23" t="n">
-        <v>0.101010101010101</v>
+        <v>0.08249158249158239</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5243055555555556</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1802631578947368</v>
+        <v>0.0780542986425339</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1452380952380952</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1509090909090909</v>
+        <v>0.0879446640316205</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.0816666666666666</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1068840579710145</v>
+        <v>0.0912698412698412</v>
       </c>
       <c r="W23" t="n">
-        <v>0.200592885375494</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.08125</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.09027777777777771</v>
+        <v>0.0572413793103448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.3813131313131312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1452380952380952</v>
+        <v>0.0739348370927318</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2590909090909091</v>
+        <v>0.5607843137254902</v>
       </c>
       <c r="F24" t="n">
-        <v>0.196594427244582</v>
+        <v>0.0550595238095238</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>0.0881818181818181</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1640866873065015</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1435897435897435</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1414473684210526</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.0654545454545454</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1406926406926407</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2368421052631578</v>
+        <v>0.0619967793880837</v>
       </c>
       <c r="O24" t="n">
-        <v>0.150735294117647</v>
+        <v>0.0497685185185185</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1208133971291866</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0838815789473684</v>
+        <v>0.0513157894736842</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1359649122807017</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.0616666666666666</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3933823529411764</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0627272727272727</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1365131578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2803921568627451</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.09</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.0540935672514619</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3980392156862745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.198051948051948</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0811688311688311</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1859649122807017</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1143790849673202</v>
+        <v>0.0684523809523809</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="K25" t="n">
+        <v>0.0417391304347826</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0548941798941798</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.06270903010033441</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0892857142857142</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0527777777777777</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0732323232323232</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.58125</v>
+      </c>
+      <c r="U25" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="L25" t="n">
-        <v>0.1166666666666666</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.165266106442577</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.1031746031746031</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.1026315789473684</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.0980861244019138</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.3219696969696969</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0764411027568922</v>
-      </c>
       <c r="V25" t="n">
-        <v>0.0763157894736842</v>
+        <v>0.0592948717948717</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1188235294117647</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3673076923076923</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3671328671328671</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1956521739130434</v>
+        <v>0.0616666666666666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.065</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08630952380952379</v>
+        <v>0.0816666666666666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2733918128654971</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1464646464646464</v>
+        <v>0.0816666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2005494505494505</v>
+        <v>0.075</v>
       </c>
       <c r="I26" t="n">
-        <v>0.165903890160183</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2128851540616246</v>
+        <v>0.0473790322580645</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1192145862552594</v>
+        <v>0.08545454545454539</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1534090909090909</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1207729468599033</v>
+        <v>0.0540935672514619</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1851851851851851</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.06347826086956521</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1463815789473684</v>
+        <v>0.0601449275362318</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1225</v>
+        <v>0.149074074074074</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1872294372294372</v>
+        <v>0.0627705627705627</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6586538461538461</v>
+        <v>0.7490196078431373</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589473684210526</v>
+        <v>0.0395962732919254</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="W26" t="n">
-        <v>0.1619047619047618</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1805555555555555</v>
+        <v>0.1374269005847953</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2285714285714285</v>
+        <v>0.0277777777777777</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4</v>
+        <v>0.5193452380952381</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.1101190476190476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08040935672514619</v>
+        <v>0.0454545454545454</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1904761904761904</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3741830065359477</v>
+        <v>0.1016746411483253</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1302521008403361</v>
+        <v>0.0545905707196029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.09704968944099369</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1143790849673202</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1226190476190476</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0571895424836601</v>
+        <v>0.0656284760845383</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1385281385281385</v>
+        <v>0.06818181818181809</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2188995215311004</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4035087719298245</v>
+        <v>0.2733918128654971</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2128851540616246</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1626984126984126</v>
+        <v>0.0646853146853146</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.119298245614035</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1457800511508951</v>
+        <v>0.046078431372549</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1911111111111111</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1181818181818181</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1128364389233954</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1128364389233954</v>
+        <v>0.0648148148148148</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0919117647058823</v>
+        <v>0.07417582417582411</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.375</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.09347826086956521</v>
+        <v>0.0263157894736842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1481818181818182</v>
+        <v>0.0799373040752351</v>
       </c>
       <c r="C28" t="n">
-        <v>0.173444976076555</v>
+        <v>0.0819397993311036</v>
       </c>
       <c r="D28" t="n">
-        <v>0.16875</v>
+        <v>0.06944444444444441</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08204334365325069</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.424812030075188</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1623376623376623</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2136363636363636</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1387163561076604</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1149068322981366</v>
+        <v>0.1052173913043478</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1961722488038277</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2178362573099415</v>
+        <v>0.025</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6172161172161172</v>
+        <v>0.284829721362229</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3308823529411764</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="O28" t="n">
-        <v>0.156084656084656</v>
+        <v>0.0763157894736842</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1551383399209486</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1578947368421052</v>
+        <v>0.075</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.025</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1768774703557312</v>
+        <v>0.0425724637681159</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1009316770186335</v>
+        <v>0.0916666666666666</v>
       </c>
       <c r="U28" t="n">
-        <v>0.155</v>
+        <v>0.075</v>
       </c>
       <c r="V28" t="n">
-        <v>0.303030303030303</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0871212121212121</v>
+        <v>0.1068840579710145</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.141025641025641</v>
+        <v>0.1053113553113553</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1509090909090909</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4962121212121212</v>
+        <v>0.25</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1441647597254004</v>
+        <v>0.025</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2788461538461538</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6424242424242425</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1336898395721925</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.0643939393939393</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.025</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1149068322981366</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1184782608695652</v>
+        <v>0.0753968253968253</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1748366013071895</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3521739130434783</v>
+        <v>0.7063492063492063</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1431818181818182</v>
+        <v>0.0815018315018315</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1561264822134387</v>
+        <v>0.025</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.0571895424836601</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1589673913043478</v>
+        <v>0.0834782608695652</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1625</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05625</v>
+        <v>0.0592948717948717</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1047619047619047</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="V29" t="n">
-        <v>0.206578947368421</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.0463157894736842</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1396103896103896</v>
+        <v>0.0483870967741935</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.138235294117647</v>
+        <v>0.0726190476190476</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1064425770308123</v>
+        <v>0.0572413793103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1254901960784313</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1726973684210526</v>
+        <v>0.0729166666666666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1464646464646464</v>
+        <v>0.0417391304347826</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1860902255639097</v>
+        <v>0.0717391304347826</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2166666666666666</v>
+        <v>0.0910973084886128</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.0597643097643097</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1287878787878787</v>
+        <v>0.0477272727272727</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0753588516746411</v>
+        <v>0.0815018315018315</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3826086956521739</v>
+        <v>0.5340557275541795</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5476190476190476</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.0654545454545454</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1213235294117647</v>
+        <v>0.0444664031620553</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1706730769230769</v>
+        <v>0.0608333333333333</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3912280701754386</v>
+        <v>0.2532679738562091</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1405228758169934</v>
+        <v>0.0693581780538302</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1625</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.0739348370927318</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1372282608695652</v>
+        <v>0.0465367965367965</v>
       </c>
       <c r="W30" t="n">
-        <v>0.10625</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1681818181818181</v>
+        <v>0.1125</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1270833333333333</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2015151515151515</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4299242424242424</v>
+        <v>0.5247678018575852</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2218045112781954</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1961722488038277</v>
+        <v>0.0663157894736842</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1135714285714285</v>
+        <v>0.0876190476190476</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.0753968253968253</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.2456140350877192</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.09761904761904761</v>
       </c>
       <c r="J31" t="n">
-        <v>0.202445652173913</v>
+        <v>0.0395962732919254</v>
       </c>
       <c r="K31" t="n">
-        <v>0.256578947368421</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1669565217391304</v>
+        <v>0.0639730639730639</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6461538461538461</v>
+        <v>0.4985294117647059</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1242424242424242</v>
+        <v>0.052139037433155</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1527777777777777</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2163742690058479</v>
+        <v>0.0515873015873015</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1521739130434782</v>
+        <v>0.0763888888888888</v>
       </c>
       <c r="U31" t="n">
+        <v>0.094017094017094</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0652173913043478</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0455486542443064</v>
+      </c>
+      <c r="Y31" t="n">
         <v>0.1081818181818181</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.1931216931216931</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.071078431372549</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.19375</v>
       </c>
     </row>
   </sheetData>
